--- a/Sprint 3/Team06Report.xlsx
+++ b/Sprint 3/Team06Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Documents\test_007\cs555tm062022Fall\Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4098A2FE-019D-4FD7-A9F5-93A4AA8A9308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D55FC4-5963-4BD4-A1DD-35A44EB15CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="194">
   <si>
     <t>Initials</t>
   </si>
@@ -609,6 +609,18 @@
   <si>
     <t>-test using various methods</t>
   </si>
+  <si>
+    <t>REVIEW RESULT</t>
+  </si>
+  <si>
+    <t>-Work proactively</t>
+  </si>
+  <si>
+    <t>AVOID</t>
+  </si>
+  <si>
+    <t>-Making things too perfect</t>
+  </si>
 </sst>
 </file>
 
@@ -687,7 +699,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
@@ -695,8 +707,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -735,8 +749,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,6 +764,8 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 5" xfId="6" xr:uid="{D32C9D2D-2827-46AD-9E27-B07898F6F1CD}"/>
+    <cellStyle name="Normal 6" xfId="7" xr:uid="{CB8900AC-F2BA-4B6A-8E0E-0BCBB4329663}"/>
+    <cellStyle name="Normal 7" xfId="8" xr:uid="{0B1BED6A-15A7-48BB-86C1-C8F8EE34C884}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -18330,7 +18352,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18510,28 +18532,44 @@
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+    </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>192</v>
+      </c>
+    </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Sprint 3/Team06Report.xlsx
+++ b/Sprint 3/Team06Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Documents\test_007\cs555tm062022Fall\Sprint 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Stevens\Agile\cs555tm062022Fall-main\cs555tm062022Fall-main\Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D55FC4-5963-4BD4-A1DD-35A44EB15CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sprint4" sheetId="7" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="194">
   <si>
     <t>Initials</t>
   </si>
@@ -625,7 +624,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -758,14 +757,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 5" xfId="6" xr:uid="{D32C9D2D-2827-46AD-9E27-B07898F6F1CD}"/>
-    <cellStyle name="Normal 6" xfId="7" xr:uid="{CB8900AC-F2BA-4B6A-8E0E-0BCBB4329663}"/>
-    <cellStyle name="Normal 7" xfId="8" xr:uid="{0B1BED6A-15A7-48BB-86C1-C8F8EE34C884}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal 5" xfId="6"/>
+    <cellStyle name="Normal 6" xfId="7"/>
+    <cellStyle name="Normal 7" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -781,7 +780,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -855,7 +854,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8084-4DF4-A68A-A40CF043ED70}"/>
             </c:ext>
@@ -870,11 +869,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="223170832"/>
-        <c:axId val="223175144"/>
+        <c:axId val="251184360"/>
+        <c:axId val="305315680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="223170832"/>
+        <c:axId val="251184360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,6 +897,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
@@ -919,14 +919,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223175144"/>
+        <c:crossAx val="305315680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="223175144"/>
+        <c:axId val="305315680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,6 +959,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -983,7 +984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223170832"/>
+        <c:crossAx val="251184360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1001,7 +1002,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -1033,13 +1034,16 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41904</c:v>
+                  <c:v>44830</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41917</c:v>
+                  <c:v>44837</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43009</c:v>
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1059,11 +1063,14 @@
                 <c:pt idx="2">
                   <c:v>14</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2209-4441-BC72-8A9E27ABD0B3}"/>
             </c:ext>
@@ -1078,11 +1085,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="223172400"/>
-        <c:axId val="223172792"/>
+        <c:axId val="306641480"/>
+        <c:axId val="305631664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="223172400"/>
+        <c:axId val="306641480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,6 +1113,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
@@ -1127,14 +1135,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223172792"/>
+        <c:crossAx val="305631664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="223172792"/>
+        <c:axId val="305631664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1167,6 +1175,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1191,7 +1200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223172400"/>
+        <c:crossAx val="306641480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1223,7 +1232,7 @@
         <xdr:cNvPr id="1232559327" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DF5C7749}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000DF5C7749}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1254,7 +1263,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1362,7 +1371,7 @@
         <xdr:cNvPr id="4" name="Shape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1446,7 +1455,7 @@
         <xdr:cNvPr id="5" name="Shape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,7 +1539,7 @@
         <xdr:cNvPr id="6" name="Shape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1647,7 @@
         <xdr:cNvPr id="7" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1731,7 @@
         <xdr:cNvPr id="8" name="Shape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1811,7 +1820,7 @@
         <xdr:cNvPr id="1994778976" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060E9E576}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000060E9E576}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3139,9 +3148,9 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -3149,11 +3158,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3286,7 +3295,7 @@
         <v>172</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3303,7 +3312,7 @@
         <v>172</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3422,7 +3431,7 @@
         <v>167</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3439,7 +3448,7 @@
         <v>167</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4594,7 +4603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -8766,11 +8775,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8826,7 +8835,7 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>41904</v>
+        <v>44830</v>
       </c>
       <c r="B2" s="2">
         <v>24</v>
@@ -8835,13 +8844,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>250</v>
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>120</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>41917</v>
+        <v>44837</v>
       </c>
       <c r="B3" s="2">
         <v>18</v>
@@ -8851,7 +8863,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>120</v>
@@ -8863,21 +8875,38 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>43009</v>
+        <v>44851</v>
       </c>
       <c r="B4">
         <v>14</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>250</v>
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>44865</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>120</v>
+      </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12868,7 +12897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17095,7 +17124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18348,11 +18377,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18402,7 +18431,7 @@
         <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -18431,7 +18460,7 @@
         <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -18459,14 +18488,23 @@
       <c r="C4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>174</v>
+      <c r="D4" t="s">
+        <v>38</v>
       </c>
       <c r="E4">
         <v>20</v>
       </c>
       <c r="F4">
         <v>60</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="I4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18479,14 +18517,23 @@
       <c r="C5" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>174</v>
+      <c r="D5" t="s">
+        <v>38</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
       <c r="F5">
         <v>60</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19545,10 +19592,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19584,12 +19633,126 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+    </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20590,7 +20753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">

--- a/Sprint 3/Team06Report.xlsx
+++ b/Sprint 3/Team06Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Stevens\Agile\cs555tm062022Fall-main\cs555tm062022Fall-main\Sprint 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2EC9BC-CF44-4961-9981-BF023861D557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-19968" yWindow="1428" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Sprint4" sheetId="7" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -618,13 +619,13 @@
     <t>AVOID</t>
   </si>
   <si>
-    <t>-Making things too perfect</t>
+    <t xml:space="preserve">Avoid making things very perfect.     </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -698,11 +699,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
@@ -751,20 +753,21 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 5" xfId="6"/>
-    <cellStyle name="Normal 6" xfId="7"/>
-    <cellStyle name="Normal 7" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 8" xfId="9" xr:uid="{3CA68F99-10C0-4CF6-8E69-E05B87AD8418}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -780,7 +783,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -854,7 +857,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8084-4DF4-A68A-A40CF043ED70}"/>
             </c:ext>
@@ -897,7 +900,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
@@ -959,7 +961,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1002,7 +1003,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -1070,7 +1071,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2209-4441-BC72-8A9E27ABD0B3}"/>
             </c:ext>
@@ -1113,7 +1114,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
@@ -1175,7 +1175,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1232,7 +1231,7 @@
         <xdr:cNvPr id="1232559327" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000DF5C7749}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DF5C7749}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1262,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1370,7 @@
         <xdr:cNvPr id="4" name="Shape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1454,7 @@
         <xdr:cNvPr id="5" name="Shape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1538,7 @@
         <xdr:cNvPr id="6" name="Shape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1646,7 @@
         <xdr:cNvPr id="7" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1730,7 @@
         <xdr:cNvPr id="8" name="Shape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1819,7 @@
         <xdr:cNvPr id="1994778976" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000060E9E576}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060E9E576}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,7 +2037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3148,9 +3147,9 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -3158,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
@@ -4603,7 +4602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -8775,7 +8774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12897,7 +12896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17124,7 +17123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18377,17 +18376,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="26" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18585,7 +18584,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="22" t="s">
         <v>191</v>
       </c>
@@ -18597,7 +18596,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="23" t="s">
         <v>193</v>
       </c>
@@ -19592,7 +19591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20753,7 +20752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">

--- a/Sprint 3/Team06Report.xlsx
+++ b/Sprint 3/Team06Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\Nidhin\cs555tm062022Fall\Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2EC9BC-CF44-4961-9981-BF023861D557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E456BB90-B715-4D55-88FD-C0DB127628BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19968" yWindow="1428" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="194">
   <si>
     <t>Initials</t>
   </si>
@@ -18379,8 +18379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18546,13 +18546,22 @@
         <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6">
         <v>60</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18566,13 +18575,22 @@
         <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>20</v>
       </c>
       <c r="F7">
         <v>60</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>120</v>
+      </c>
+      <c r="I7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19595,7 +19613,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
